--- a/data/trans_bre/P11_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 19,07</t>
+          <t>2,78; 19,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,24; 24,91</t>
+          <t>9,47; 24,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 28,76</t>
+          <t>13,64; 27,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,97; 90,53</t>
+          <t>11,22; 93,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,62; 150,2</t>
+          <t>38,73; 150,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,27; 111,79</t>
+          <t>37,33; 109,71</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,07; 25,76</t>
+          <t>14,11; 26,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 19,98</t>
+          <t>9,29; 20,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 13,61</t>
+          <t>3,85; 13,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 16,21</t>
+          <t>4,7; 15,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,0; 139,19</t>
+          <t>54,8; 139,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,21; 172,81</t>
+          <t>54,68; 175,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,3; 125,33</t>
+          <t>24,74; 117,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,62; 75,26</t>
+          <t>16,47; 75,77</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 20,42</t>
+          <t>8,25; 20,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 16,86</t>
+          <t>4,13; 16,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 16,37</t>
+          <t>3,8; 15,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 10,79</t>
+          <t>-2,71; 9,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>49,65; 202,16</t>
+          <t>51,33; 202,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,31; 125,57</t>
+          <t>21,66; 126,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,06; 153,17</t>
+          <t>23,03; 139,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 37,7</t>
+          <t>-7,74; 32,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 20,89</t>
+          <t>7,26; 20,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,14; 21,53</t>
+          <t>12,13; 22,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 21,76</t>
+          <t>8,26; 22,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 18,45</t>
+          <t>1,45; 17,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,3; 120,68</t>
+          <t>28,93; 117,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,31; 134,18</t>
+          <t>57,72; 137,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,6; 112,05</t>
+          <t>31,65; 118,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 67,9</t>
+          <t>4,2; 62,27</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 15,4</t>
+          <t>0,11; 15,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,08; 33,58</t>
+          <t>15,82; 33,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 16,0</t>
+          <t>-0,88; 15,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 15,75</t>
+          <t>2,71; 15,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 134,02</t>
+          <t>0,24; 132,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,89; 193,56</t>
+          <t>59,78; 193,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 91,12</t>
+          <t>-4,16; 91,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 80,76</t>
+          <t>9,62; 78,3</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 17,37</t>
+          <t>2,46; 17,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 11,9</t>
+          <t>-3,62; 12,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 16,83</t>
+          <t>1,79; 17,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 17,85</t>
+          <t>3,02; 18,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,83; 109,95</t>
+          <t>10,82; 113,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 57,97</t>
+          <t>-13,35; 57,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,34; 91,88</t>
+          <t>6,07; 93,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,77; 45,34</t>
+          <t>6,02; 44,82</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 10,73</t>
+          <t>2,44; 11,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,2; 16,67</t>
+          <t>7,67; 16,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,32; 13,67</t>
+          <t>3,34; 13,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,87; 38,14</t>
+          <t>7,04; 39,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,28; 88,18</t>
+          <t>14,57; 92,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,96; 129,83</t>
+          <t>44,77; 126,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,48; 63,49</t>
+          <t>12,78; 64,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,19; 154,93</t>
+          <t>25,11; 161,25</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,35; 11,7</t>
+          <t>3,25; 11,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,23; 12,9</t>
+          <t>2,89; 12,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 13,91</t>
+          <t>5,66; 13,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,39; 17,19</t>
+          <t>8,25; 16,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,03; 70,62</t>
+          <t>15,68; 72,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,15; 59,85</t>
+          <t>11,7; 57,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,24; 100,07</t>
+          <t>31,04; 96,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>44,53; 120,56</t>
+          <t>42,76; 121,32</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,0; 13,21</t>
+          <t>8,9; 13,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,48</t>
+          <t>10,53; 14,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,11</t>
+          <t>8,19; 12,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,66; 18,34</t>
+          <t>9,49; 18,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>46,29; 75,37</t>
+          <t>47,02; 75,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>51,41; 80,49</t>
+          <t>53,65; 82,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>41,15; 68,72</t>
+          <t>41,85; 71,55</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>34,47; 73,24</t>
+          <t>33,57; 70,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P11_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 19,01</t>
+          <t>2,47; 18,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,47; 24,89</t>
+          <t>9,28; 25,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,22; 93,92</t>
+          <t>9,45; 87,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,73; 150,09</t>
+          <t>39,28; 155,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,11; 26,28</t>
+          <t>14,23; 25,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,29; 20,14</t>
+          <t>9,4; 20,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 13,04</t>
+          <t>3,92; 13,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,8; 139,84</t>
+          <t>55,97; 136,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,68; 175,77</t>
+          <t>55,73; 171,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,74; 117,75</t>
+          <t>25,04; 124,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 20,46</t>
+          <t>8,01; 19,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 16,92</t>
+          <t>3,12; 16,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 15,37</t>
+          <t>3,84; 15,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,33; 202,72</t>
+          <t>45,45; 184,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,66; 126,97</t>
+          <t>17,05; 128,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,03; 139,12</t>
+          <t>22,11; 146,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 20,55</t>
+          <t>6,91; 20,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 22,25</t>
+          <t>12,57; 21,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,26; 22,13</t>
+          <t>8,47; 21,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,93; 117,16</t>
+          <t>29,27; 111,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,72; 137,06</t>
+          <t>59,31; 135,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,65; 118,36</t>
+          <t>32,9; 117,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 15,86</t>
+          <t>0,11; 15,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,82; 33,59</t>
+          <t>15,5; 33,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 15,8</t>
+          <t>-1,49; 15,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 132,02</t>
+          <t>0,59; 133,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,78; 193,28</t>
+          <t>59,37; 194,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 91,77</t>
+          <t>-6,37; 89,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,46; 17,6</t>
+          <t>2,6; 17,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 12,13</t>
+          <t>-2,71; 12,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,79; 17,32</t>
+          <t>2,06; 16,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,82; 113,57</t>
+          <t>11,53; 111,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 57,58</t>
+          <t>-9,46; 59,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,07; 93,97</t>
+          <t>8,13; 91,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,44; 11,16</t>
+          <t>2,13; 10,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,67; 16,21</t>
+          <t>7,38; 16,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,34; 13,18</t>
+          <t>3,35; 13,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,57; 92,94</t>
+          <t>11,75; 86,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,77; 126,75</t>
+          <t>42,42; 127,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,78; 64,2</t>
+          <t>12,44; 63,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,25; 11,65</t>
+          <t>3,6; 12,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,89; 12,14</t>
+          <t>2,93; 12,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,66; 13,79</t>
+          <t>6,14; 13,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,68; 72,78</t>
+          <t>17,66; 75,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,7; 57,19</t>
+          <t>10,87; 58,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,04; 96,12</t>
+          <t>35,4; 99,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,07</t>
+          <t>8,9; 13,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,53; 14,61</t>
+          <t>10,46; 14,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,19; 12,63</t>
+          <t>8,14; 12,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>47,02; 75,49</t>
+          <t>46,81; 76,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>53,65; 82,57</t>
+          <t>52,03; 82,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>41,85; 71,55</t>
+          <t>41,43; 69,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P11_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas</t>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 18,12</t>
+          <t>3,91; 19,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,28; 25,02</t>
+          <t>9,24; 24,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,64; 27,92</t>
+          <t>13,57; 28,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,45; 87,63</t>
+          <t>12,97; 90,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,28; 155,49</t>
+          <t>37,62; 150,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,33; 109,71</t>
+          <t>39,27; 111,79</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 25,56</t>
+          <t>14,07; 25,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 20,06</t>
+          <t>9,57; 19,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 13,41</t>
+          <t>3,88; 13,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 15,87</t>
+          <t>4,96; 16,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,97; 136,28</t>
+          <t>57,0; 139,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,73; 171,48</t>
+          <t>56,21; 172,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,04; 124,27</t>
+          <t>25,3; 125,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,47; 75,77</t>
+          <t>17,62; 75,26</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,01; 19,75</t>
+          <t>7,96; 20,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 16,48</t>
+          <t>3,6; 16,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 15,69</t>
+          <t>4,01; 16,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 9,71</t>
+          <t>-2,47; 10,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,45; 184,6</t>
+          <t>49,65; 202,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,05; 128,61</t>
+          <t>18,31; 125,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,11; 146,11</t>
+          <t>24,06; 153,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 32,73</t>
+          <t>-6,55; 37,7</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 20,25</t>
+          <t>8,15; 20,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,57; 21,99</t>
+          <t>12,14; 21,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 21,76</t>
+          <t>7,81; 21,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 17,49</t>
+          <t>1,15; 18,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,27; 111,48</t>
+          <t>34,3; 120,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,31; 135,86</t>
+          <t>59,31; 134,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,9; 117,03</t>
+          <t>30,6; 112,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 62,27</t>
+          <t>3,11; 67,9</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 15,73</t>
+          <t>-0,08; 15,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,5; 33,36</t>
+          <t>16,08; 33,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 15,87</t>
+          <t>-0,53; 16,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 15,77</t>
+          <t>2,08; 15,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 133,24</t>
+          <t>-2,1; 134,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,37; 194,66</t>
+          <t>57,89; 193,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 89,43</t>
+          <t>-3,35; 91,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,62; 78,3</t>
+          <t>7,27; 80,76</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,6; 17,24</t>
+          <t>3,81; 17,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 12,34</t>
+          <t>-3,46; 11,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 16,6</t>
+          <t>1,49; 16,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 18,21</t>
+          <t>1,84; 17,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,53; 111,8</t>
+          <t>16,83; 109,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 59,94</t>
+          <t>-12,18; 57,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,13; 91,4</t>
+          <t>5,34; 91,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,02; 44,82</t>
+          <t>3,77; 45,34</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 10,59</t>
+          <t>2,05; 10,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,38; 16,29</t>
+          <t>7,2; 16,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 13,0</t>
+          <t>3,32; 13,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,04; 39,99</t>
+          <t>6,87; 38,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,75; 86,88</t>
+          <t>12,28; 88,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,42; 127,7</t>
+          <t>41,96; 129,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,44; 63,65</t>
+          <t>12,48; 63,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,11; 161,25</t>
+          <t>24,19; 154,93</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,6; 12,25</t>
+          <t>3,35; 11,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,93; 12,63</t>
+          <t>3,23; 12,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,14; 13,97</t>
+          <t>5,51; 13,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,25; 16,89</t>
+          <t>8,39; 17,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,66; 75,49</t>
+          <t>16,03; 70,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,87; 58,7</t>
+          <t>12,15; 59,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>35,4; 99,12</t>
+          <t>29,24; 100,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>42,76; 121,32</t>
+          <t>44,53; 120,56</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,03</t>
+          <t>9,0; 13,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,46; 14,69</t>
+          <t>10,37; 14,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,14; 12,28</t>
+          <t>8,04; 12,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,49; 18,84</t>
+          <t>9,66; 18,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>46,81; 76,51</t>
+          <t>46,29; 75,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>52,03; 82,81</t>
+          <t>51,41; 80,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>41,43; 69,71</t>
+          <t>41,15; 68,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>33,57; 70,25</t>
+          <t>34,47; 73,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P11_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,03</t>
+          <t>21,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>69,67%</t>
+          <t>72,09%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,82; 23,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 28,76</t>
+          <t>13,17; 28,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,95; 136,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,27; 111,79</t>
+          <t>38,29; 118,18</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>11,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,78%</t>
+          <t>49,44%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 16,21</t>
+          <t>5,74; 17,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,62; 75,26</t>
+          <t>21,52; 83,99</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>12,2%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 10,79</t>
+          <t>-2,11; 11,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 37,7</t>
+          <t>-5,61; 40,21</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,18</t>
+          <t>18,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>108,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>11,26%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,14; 21,53</t>
+          <t>11,76; 24,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 18,45</t>
+          <t>-13,16; 13,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,31; 134,18</t>
+          <t>59,37; 181,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 67,9</t>
+          <t>-36,0; 48,34</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>9,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>40,17%</t>
+          <t>41,32%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 15,75</t>
+          <t>2,34; 15,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 80,76</t>
+          <t>8,21; 81,95</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,25</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>24,76%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 17,85</t>
+          <t>2,28; 18,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,77; 45,34</t>
+          <t>4,96; 47,57</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,37</t>
+          <t>24,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>64,42%</t>
+          <t>94,0%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,87; 38,14</t>
+          <t>7,29; 50,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,19; 154,93</t>
+          <t>26,84; 214,41</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,63</t>
+          <t>16,31</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>74,24%</t>
+          <t>121,11%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,39; 17,19</t>
+          <t>10,58; 25,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>44,53; 120,56</t>
+          <t>53,77; 380,04</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,58</t>
+          <t>15,33</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>47,44%</t>
+          <t>61,63%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,66; 18,34</t>
+          <t>9,82; 26,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>34,47; 73,24</t>
+          <t>36,08; 125,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P11_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 19,07</t>
+          <t>3,59; 19,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 23,3</t>
+          <t>8,72; 23,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,24; 24,91</t>
+          <t>8,76; 24,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,17; 28,94</t>
+          <t>13,19; 28,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,97; 90,53</t>
+          <t>13,81; 93,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,95; 136,43</t>
+          <t>34,52; 135,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,62; 150,2</t>
+          <t>33,19; 138,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,29; 118,18</t>
+          <t>38,35; 116,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,07; 25,76</t>
+          <t>14,19; 25,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 19,98</t>
+          <t>9,9; 20,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 13,61</t>
+          <t>3,96; 13,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 17,11</t>
+          <t>5,78; 16,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,0; 139,19</t>
+          <t>57,2; 135,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,21; 172,81</t>
+          <t>54,42; 173,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,3; 125,33</t>
+          <t>26,34; 126,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,52; 83,99</t>
+          <t>21,83; 81,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 20,42</t>
+          <t>7,62; 20,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 16,86</t>
+          <t>4,2; 16,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 16,37</t>
+          <t>3,9; 15,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 11,24</t>
+          <t>-2,36; 10,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>49,65; 202,16</t>
+          <t>49,01; 190,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,31; 125,57</t>
+          <t>21,88; 130,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,06; 153,17</t>
+          <t>24,24; 155,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 40,21</t>
+          <t>-6,27; 37,85</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 20,89</t>
+          <t>7,25; 20,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,76; 24,41</t>
+          <t>11,43; 24,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 21,76</t>
+          <t>8,76; 21,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 13,51</t>
+          <t>-12,39; 14,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,3; 120,68</t>
+          <t>30,05; 113,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,37; 181,32</t>
+          <t>52,66; 173,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,6; 112,05</t>
+          <t>31,83; 112,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,0; 48,34</t>
+          <t>-33,09; 49,83</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 15,4</t>
+          <t>0,39; 15,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,08; 33,58</t>
+          <t>15,49; 33,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 16,0</t>
+          <t>-0,51; 16,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 15,95</t>
+          <t>3,04; 16,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 134,02</t>
+          <t>2,2; 140,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,89; 193,56</t>
+          <t>59,38; 197,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 91,12</t>
+          <t>-3,13; 94,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,21; 81,95</t>
+          <t>10,42; 84,06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 17,37</t>
+          <t>2,06; 17,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 11,9</t>
+          <t>-3,58; 12,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 16,83</t>
+          <t>0,63; 16,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 18,4</t>
+          <t>3,35; 18,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,83; 109,95</t>
+          <t>9,68; 106,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 57,97</t>
+          <t>-12,68; 59,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,34; 91,88</t>
+          <t>1,3; 89,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,96; 47,57</t>
+          <t>6,86; 46,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 10,73</t>
+          <t>2,21; 10,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,2; 16,67</t>
+          <t>7,49; 16,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,32; 13,67</t>
+          <t>3,19; 13,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,29; 50,21</t>
+          <t>7,78; 48,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,28; 88,18</t>
+          <t>12,53; 85,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,96; 129,83</t>
+          <t>43,37; 127,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,48; 63,49</t>
+          <t>13,02; 65,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,84; 214,41</t>
+          <t>28,81; 210,64</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,35; 11,7</t>
+          <t>3,46; 11,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,23; 12,9</t>
+          <t>3,21; 12,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 13,91</t>
+          <t>5,93; 14,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,58; 25,35</t>
+          <t>10,16; 25,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,03; 70,62</t>
+          <t>17,09; 69,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,15; 59,85</t>
+          <t>11,59; 57,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,24; 100,07</t>
+          <t>32,57; 102,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>53,77; 380,04</t>
+          <t>53,68; 398,08</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,0; 13,21</t>
+          <t>8,95; 13,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,48</t>
+          <t>10,29; 14,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,11</t>
+          <t>8,33; 12,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,82; 26,41</t>
+          <t>9,95; 25,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>46,29; 75,37</t>
+          <t>46,65; 76,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>51,41; 80,49</t>
+          <t>51,66; 81,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>41,15; 68,72</t>
+          <t>42,65; 70,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>36,08; 125,41</t>
+          <t>37,78; 118,44</t>
         </is>
       </c>
     </row>
